--- a/resultados/00_Facu_registro corridas modelo.xlsx
+++ b/resultados/00_Facu_registro corridas modelo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Investigación\1. Maestría DM\2021Economia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\dmeyf_tp1\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A82B825-E8E1-4994-B30C-3A955ADF7EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A602B39-B4A8-492B-B59E-8B9DA1B7B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2400" yWindow="-13410" windowWidth="15375" windowHeight="7875" xr2:uid="{5A146F0E-85C5-4555-AEC7-231A5B934FCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A146F0E-85C5-4555-AEC7-231A5B934FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
   <si>
     <t>560_ranger_BO</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>votacion0930.csv</t>
+  </si>
+  <si>
+    <t>PRIMER INTENTO CON STACKIN</t>
+  </si>
+  <si>
+    <t>1010_812_dataset_epic_sacomalas_agregoFEconFI_sinC</t>
+  </si>
+  <si>
+    <t>Saco variables malas elegidas por mi, agrego FEconFI, y no uso la parte de C porqueno la puedo correr</t>
   </si>
 </sst>
 </file>
@@ -867,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398183E5-79DE-48A1-B754-8E7D3FC4CC97}">
-  <dimension ref="A2:AA45"/>
+  <dimension ref="A2:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,6 +2355,19 @@
       </c>
       <c r="M45" s="1">
         <v>13.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/00_Facu_registro corridas modelo.xlsx
+++ b/resultados/00_Facu_registro corridas modelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\dmeyf_tp1\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A602B39-B4A8-492B-B59E-8B9DA1B7B1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54B750B-525F-4614-B962-5F08020EB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A146F0E-85C5-4555-AEC7-231A5B934FCA}"/>
+    <workbookView xWindow="1185" yWindow="1185" windowWidth="15375" windowHeight="7875" xr2:uid="{5A146F0E-85C5-4555-AEC7-231A5B934FCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="135">
   <si>
     <t>560_ranger_BO</t>
   </si>
@@ -413,13 +413,25 @@
     <t>votacion0930.csv</t>
   </si>
   <si>
-    <t>PRIMER INTENTO CON STACKIN</t>
-  </si>
-  <si>
     <t>1010_812_dataset_epic_sacomalas_agregoFEconFI_sinC</t>
   </si>
   <si>
     <t>Saco variables malas elegidas por mi, agrego FEconFI, y no uso la parte de C porqueno la puedo correr</t>
+  </si>
+  <si>
+    <t>Public leaderboard</t>
+  </si>
+  <si>
+    <t>Intentos con stacking</t>
+  </si>
+  <si>
+    <t>1410_847_epic_stacking</t>
+  </si>
+  <si>
+    <t>1er</t>
+  </si>
+  <si>
+    <t>2do</t>
   </si>
 </sst>
 </file>
@@ -876,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398183E5-79DE-48A1-B754-8E7D3FC4CC97}">
-  <dimension ref="A2:AA50"/>
+  <dimension ref="A2:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2359,15 +2371,37 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>129</v>
       </c>
-      <c r="F50" t="s">
-        <v>130</v>
+      <c r="P50">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="P51">
+        <v>12.8</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/00_Facu_registro corridas modelo.xlsx
+++ b/resultados/00_Facu_registro corridas modelo.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\dmeyf_tp1\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54B750B-525F-4614-B962-5F08020EB8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97336023-5794-4439-9AE8-FDB656D8E461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1185" windowWidth="15375" windowHeight="7875" xr2:uid="{5A146F0E-85C5-4555-AEC7-231A5B934FCA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A146F0E-85C5-4555-AEC7-231A5B934FCA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Principal" sheetId="3" r:id="rId1"/>
+    <sheet name="Mas info" sheetId="1" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
   <si>
     <t>560_ranger_BO</t>
   </si>
@@ -432,13 +432,49 @@
   </si>
   <si>
     <t>2do</t>
+  </si>
+  <si>
+    <t>E1023_847_epic_stacking_004.csv</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>3er</t>
+  </si>
+  <si>
+    <t>Idem anterior pero usado la parte de C</t>
+  </si>
+  <si>
+    <t>Corrida agregando variables con script en python</t>
+  </si>
+  <si>
+    <t>Corrida sólo con los modelos generados agregando variables con script en python</t>
+  </si>
+  <si>
+    <t>Corrida sólo con los modelos sacado de los economistas no</t>
+  </si>
+  <si>
+    <t>Corrida con todos los anteriores incluidos</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Puedo ver de sacar los modelos que se generaron en este script</t>
+  </si>
+  <si>
+    <t>Stacking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +503,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="4">
@@ -541,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -573,7 +615,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,14 +935,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398183E5-79DE-48A1-B754-8E7D3FC4CC97}">
-  <dimension ref="A2:AA51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543167EF-5581-4625-96B3-2CC896D0118D}">
+  <dimension ref="B3:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="16"/>
+    <col min="3" max="3" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="16"/>
+    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" ht="15.75">
+      <c r="C3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>654789</v>
+      </c>
+      <c r="F4" s="19">
+        <v>3841250</v>
+      </c>
+      <c r="G4" s="19">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
+        <v>5413750</v>
+      </c>
+      <c r="G5" s="20">
+        <v>9.59</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="21">
+        <v>456789</v>
+      </c>
+      <c r="F6" s="21">
+        <v>8458750</v>
+      </c>
+      <c r="G6" s="21">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
+        <v>8581250</v>
+      </c>
+      <c r="G7" s="20">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="21">
+        <v>456789</v>
+      </c>
+      <c r="F8" s="21">
+        <v>8481250</v>
+      </c>
+      <c r="G8" s="21">
+        <v>12.07</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
+        <v>8521250</v>
+      </c>
+      <c r="G9" s="21">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21">
+        <v>8703750</v>
+      </c>
+      <c r="G10" s="21">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20">
+        <v>8706250</v>
+      </c>
+      <c r="G11" s="20">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="21">
+        <v>456789</v>
+      </c>
+      <c r="F12" s="19">
+        <v>8276250</v>
+      </c>
+      <c r="G12" s="19">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19">
+        <v>8318750</v>
+      </c>
+      <c r="G13" s="19">
+        <v>10.38</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19">
+        <v>8342500</v>
+      </c>
+      <c r="G14" s="19">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19">
+        <v>8258750</v>
+      </c>
+      <c r="G15" s="19">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="20">
+        <v>8775000</v>
+      </c>
+      <c r="G16" s="20">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="C17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="24">
+        <v>456789</v>
+      </c>
+      <c r="F17" s="24">
+        <v>8948750</v>
+      </c>
+      <c r="G17" s="24">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="C18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="21">
+        <v>456789</v>
+      </c>
+      <c r="F18" s="21">
+        <v>8626250</v>
+      </c>
+      <c r="G18" s="21">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21">
+        <v>8670000</v>
+      </c>
+      <c r="G19" s="21">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="28">
+        <v>8755000</v>
+      </c>
+      <c r="G20" s="28">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="16">
+        <v>7883124</v>
+      </c>
+      <c r="G21" s="16">
+        <v>12.22</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="C22" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="16">
+        <v>8401874</v>
+      </c>
+      <c r="G22" s="16">
+        <v>12.81</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="C23" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="16">
+        <v>8233124</v>
+      </c>
+      <c r="G23" s="16">
+        <v>13.01</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="P25" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398183E5-79DE-48A1-B754-8E7D3FC4CC97}">
+  <dimension ref="A2:AA55"/>
+  <sheetViews>
+    <sheetView topLeftCell="B36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:P52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -908,12 +1274,14 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -948,7 +1316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>928</v>
       </c>
@@ -986,7 +1354,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1017,7 +1385,7 @@
         <v>9.59</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="19.5" customHeight="1">
       <c r="A6">
         <v>929</v>
       </c>
@@ -1034,7 +1402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27">
       <c r="E7" t="s">
         <v>16</v>
       </c>
@@ -1102,7 +1470,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="K8" s="1">
         <v>8458750</v>
       </c>
@@ -1116,7 +1484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="E9" t="s">
         <v>24</v>
       </c>
@@ -1184,7 +1552,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1206,7 +1574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>929</v>
       </c>
@@ -1223,7 +1591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27">
       <c r="E12" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27">
       <c r="K13" s="1">
         <v>8481250</v>
       </c>
@@ -1303,7 +1671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27">
       <c r="E14" t="s">
         <v>39</v>
       </c>
@@ -1368,7 +1736,7 @@
         <v>8521250</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="K15" s="1">
         <v>8521250</v>
       </c>
@@ -1377,7 +1745,7 @@
         <v>13.22</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27">
       <c r="E16" t="s">
         <v>44</v>
       </c>
@@ -1442,7 +1810,7 @@
         <v>8703750</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="K17" s="1">
         <v>8703750</v>
       </c>
@@ -1451,7 +1819,7 @@
         <v>12.81</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="E18" t="s">
         <v>48</v>
       </c>
@@ -1516,7 +1884,7 @@
         <v>8706250</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1535,7 +1903,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>929</v>
       </c>
@@ -1546,7 +1914,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="E21" t="s">
         <v>52</v>
       </c>
@@ -1611,7 +1979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="K22" s="1">
         <v>8276250</v>
       </c>
@@ -1623,7 +1991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="E23" t="s">
         <v>63</v>
       </c>
@@ -1691,7 +2059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="K24" s="1">
         <v>8318750</v>
       </c>
@@ -1702,7 +2070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="E25" t="s">
         <v>67</v>
       </c>
@@ -1770,7 +2138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="K26" s="1">
         <v>8342500</v>
       </c>
@@ -1781,7 +2149,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" s="2">
         <v>930</v>
       </c>
@@ -1805,7 +2173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="E28" t="s">
         <v>89</v>
       </c>
@@ -1870,7 +2238,7 @@
         <v>8258750</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="K29" s="1">
         <v>8258750</v>
       </c>
@@ -1878,7 +2246,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="E30" t="s">
         <v>93</v>
       </c>
@@ -1943,7 +2311,7 @@
         <v>8775000</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="K31" s="1">
         <v>8775000</v>
       </c>
@@ -1952,7 +2320,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="E32" t="s">
         <v>97</v>
       </c>
@@ -2017,7 +2385,7 @@
         <v>8948750</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="K33" s="1">
         <v>8948750</v>
       </c>
@@ -2025,7 +2393,7 @@
         <v>12.68</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" s="2">
         <v>930</v>
       </c>
@@ -2046,7 +2414,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="E35" t="s">
         <v>101</v>
       </c>
@@ -2111,7 +2479,7 @@
         <v>8907500</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="K36" s="1">
         <v>8907500</v>
       </c>
@@ -2119,7 +2487,7 @@
         <v>12.26</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" s="2">
         <v>930</v>
       </c>
@@ -2140,7 +2508,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="E38" t="s">
         <v>107</v>
       </c>
@@ -2205,7 +2573,7 @@
         <v>8626250</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="K39" s="1">
         <v>8626250</v>
       </c>
@@ -2214,7 +2582,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="E40" t="s">
         <v>111</v>
       </c>
@@ -2279,7 +2647,7 @@
         <v>8670000</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="K41" s="1">
         <v>8670000</v>
       </c>
@@ -2288,7 +2656,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="E42" t="s">
         <v>123</v>
       </c>
@@ -2353,7 +2721,7 @@
         <v>8755000</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="K43">
         <v>8755000</v>
       </c>
@@ -2361,7 +2729,7 @@
         <v>13.69</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="B45" t="s">
         <v>127</v>
       </c>
@@ -2369,17 +2737,26 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="B48" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="P49" t="s">
+    <row r="49" spans="1:18">
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" t="s">
+        <v>137</v>
+      </c>
+      <c r="O49" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -2389,285 +2766,68 @@
       <c r="F50" t="s">
         <v>129</v>
       </c>
-      <c r="P50">
-        <v>12.23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O50" s="26">
+        <v>7883124</v>
+      </c>
+      <c r="P50" s="5">
+        <v>12.22</v>
+      </c>
+      <c r="R50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
         <v>134</v>
       </c>
       <c r="B51" t="s">
         <v>132</v>
       </c>
-      <c r="P51">
+      <c r="F51" t="s">
+        <v>139</v>
+      </c>
+      <c r="O51" s="26">
+        <v>8401874</v>
+      </c>
+      <c r="P51" s="5">
         <v>12.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="s">
+        <v>140</v>
+      </c>
+      <c r="O52" s="26">
+        <v>8233124</v>
+      </c>
+      <c r="P52" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="F53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="F55" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543167EF-5581-4625-96B3-2CC896D0118D}">
-  <dimension ref="C3:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="11.42578125" style="16"/>
-    <col min="3" max="3" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="16"/>
-    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="19">
-        <v>654789</v>
-      </c>
-      <c r="F4" s="19">
-        <v>3841250</v>
-      </c>
-      <c r="G4" s="19">
-        <v>9.5399999999999991</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
-        <v>5413750</v>
-      </c>
-      <c r="G5" s="20">
-        <v>9.59</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="21">
-        <v>456789</v>
-      </c>
-      <c r="F6" s="21">
-        <v>8458750</v>
-      </c>
-      <c r="G6" s="21">
-        <v>12.04</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20">
-        <v>8581250</v>
-      </c>
-      <c r="G7" s="20">
-        <v>12.46</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="21">
-        <v>456789</v>
-      </c>
-      <c r="F8" s="21">
-        <v>8481250</v>
-      </c>
-      <c r="G8" s="21">
-        <v>12.07</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
-        <v>8521250</v>
-      </c>
-      <c r="G9" s="21">
-        <v>13.22</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21">
-        <v>8703750</v>
-      </c>
-      <c r="G10" s="21">
-        <v>12.81</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20">
-        <v>8706250</v>
-      </c>
-      <c r="G11" s="20">
-        <v>13.42</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="21">
-        <v>456789</v>
-      </c>
-      <c r="F12" s="19">
-        <v>8276250</v>
-      </c>
-      <c r="G12" s="19">
-        <v>10.050000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="19">
-        <v>8318750</v>
-      </c>
-      <c r="G13" s="19">
-        <v>10.38</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19">
-        <v>8342500</v>
-      </c>
-      <c r="G14" s="19">
-        <v>10.79</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19">
-        <v>8258750</v>
-      </c>
-      <c r="G15" s="19">
-        <v>13.38</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="20">
-        <v>8775000</v>
-      </c>
-      <c r="G16" s="20">
-        <v>12.37</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="24">
-        <v>456789</v>
-      </c>
-      <c r="F17" s="24">
-        <v>8948750</v>
-      </c>
-      <c r="G17" s="24">
-        <v>12.68</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="21">
-        <v>456789</v>
-      </c>
-      <c r="F18" s="21">
-        <v>8626250</v>
-      </c>
-      <c r="G18" s="21">
-        <v>12.92</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21">
-        <v>8670000</v>
-      </c>
-      <c r="G19" s="21">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="25">
-        <v>8755000</v>
-      </c>
-      <c r="G20" s="25">
-        <v>13.69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2679,14 +2839,14 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="10" width="6" customWidth="1"/>
     <col min="11" max="12" width="6.42578125" customWidth="1"/>
     <col min="13" max="18" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="B4" s="6" t="s">
         <v>72</v>
       </c>
@@ -2715,7 +2875,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="B5" s="2" t="s">
         <v>79</v>
       </c>
@@ -2770,7 +2930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="B6">
         <v>100</v>
       </c>
@@ -2816,7 +2976,7 @@
         <v>0.96199999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="B7">
         <v>100</v>
       </c>
@@ -2862,7 +3022,7 @@
         <v>0.96840000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="B8">
         <v>100</v>
       </c>
@@ -2908,7 +3068,7 @@
         <v>0.9395</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2957,7 +3117,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="B10">
         <v>100</v>
       </c>
@@ -3003,7 +3163,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="B11">
         <v>100</v>
       </c>
@@ -3049,7 +3209,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="B12">
         <v>100</v>
       </c>
@@ -3095,7 +3255,7 @@
         <v>0.87660000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="B13">
         <v>100</v>
       </c>
@@ -3139,7 +3299,7 @@
       </c>
       <c r="T13" s="15"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -3152,7 +3312,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="15"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3209,7 +3369,7 @@
         <v>0.96250000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -3245,7 +3405,7 @@
         <v>0.52700000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20">
       <c r="B17" s="5">
         <v>100</v>
       </c>
@@ -3277,7 +3437,7 @@
       </c>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20">
       <c r="B18" s="5">
         <v>100</v>
       </c>
@@ -3310,7 +3470,7 @@
         <v>0.91879999999999995</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20">
       <c r="B19" s="5">
         <v>100</v>
       </c>
@@ -3343,7 +3503,7 @@
         <v>0.97040000000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20">
       <c r="B20" s="5">
         <v>100</v>
       </c>
@@ -3374,7 +3534,7 @@
       </c>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20">
       <c r="B21" s="5">
         <v>100</v>
       </c>
@@ -3407,7 +3567,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20">
       <c r="B22" s="5">
         <v>100</v>
       </c>
@@ -3437,7 +3597,7 @@
         <v>14550</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20">
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -3451,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20">
       <c r="B24" s="5">
         <v>100</v>
       </c>
@@ -3468,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20">
       <c r="B25" s="5">
         <v>100</v>
       </c>
@@ -3482,7 +3642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20">
       <c r="F26" s="5">
         <v>20</v>
       </c>
@@ -3493,12 +3653,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20">
       <c r="N27" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20">
       <c r="N28" s="13">
         <v>3</v>
       </c>

--- a/resultados/00_Facu_registro corridas modelo.xlsx
+++ b/resultados/00_Facu_registro corridas modelo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\dmeyf_tp1\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97336023-5794-4439-9AE8-FDB656D8E461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DE7A7A-1104-4DAF-91AD-87ADE7C5028A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A146F0E-85C5-4555-AEC7-231A5B934FCA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="155">
   <si>
     <t>560_ranger_BO</t>
   </si>
@@ -468,13 +468,37 @@
   </si>
   <si>
     <t>Stacking</t>
+  </si>
+  <si>
+    <t>E1024_847_epic_stacking_108.csv</t>
+  </si>
+  <si>
+    <t>Corrida sólo con los modelitos generados a partir de base aumentada con el script de python</t>
+  </si>
+  <si>
+    <t>Corrida sólo con los modelos sacado de max_bin=5</t>
+  </si>
+  <si>
+    <t>E1027_847_epic_stacking_027.csv</t>
+  </si>
+  <si>
+    <t>Con todos los anterios</t>
+  </si>
+  <si>
+    <t>Sin los primeros</t>
+  </si>
+  <si>
+    <t>E1028_847_epic_stacking_105.csv</t>
+  </si>
+  <si>
+    <t>E1032_847_epic_stacking_159.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +533,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -580,10 +625,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -622,8 +668,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -936,18 +986,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543167EF-5581-4625-96B3-2CC896D0118D}">
-  <dimension ref="B3:Q25"/>
+  <dimension ref="B3:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="16"/>
-    <col min="3" max="3" width="18" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="16"/>
+    <col min="3" max="3" width="30.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="0.5703125" style="16" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="16"/>
@@ -1206,11 +1256,14 @@
       <c r="G21" s="16">
         <v>12.22</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="31" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:17">
+      <c r="B22" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="C22" s="16" t="s">
         <v>139</v>
       </c>
@@ -1220,11 +1273,14 @@
       <c r="G22" s="16">
         <v>12.81</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="2:17">
+      <c r="B23" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="C23" s="16" t="s">
         <v>140</v>
       </c>
@@ -1234,11 +1290,43 @@
       <c r="G23" s="16">
         <v>13.01</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="31" t="s">
         <v>135</v>
       </c>
     </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="16">
+        <v>8316999</v>
+      </c>
+      <c r="G24" s="16">
+        <v>12.76</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="25" spans="2:17">
+      <c r="B25" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="16">
+        <v>7407124</v>
+      </c>
+      <c r="G25" s="16">
+        <v>10.64</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="P25" s="16" t="s">
         <v>144</v>
       </c>
@@ -1246,9 +1334,40 @@
         <v>130</v>
       </c>
     </row>
+    <row r="26" spans="2:17">
+      <c r="C26" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="16">
+        <v>8395624</v>
+      </c>
+      <c r="G26" s="16">
+        <v>12.48</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="C27" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" s="16">
+        <v>8302124</v>
+      </c>
+      <c r="G27" s="16">
+        <v>12.5</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H26" r:id="rId1" display="https://www.kaggle.com/submissions/23268781/23268781.raw" xr:uid="{BB1F10A0-B440-4CB6-AE5B-AF93D322E11B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1257,7 +1376,7 @@
   <dimension ref="A2:AA55"/>
   <sheetViews>
     <sheetView topLeftCell="B36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:P52"/>
+      <selection activeCell="F54" sqref="F54:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2835,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421ACFE-D8F3-40F9-9837-0E425D2E4F02}">
   <dimension ref="A4:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
